--- a/SE2223_60157_60201_60226_60479_60749/Work breakdown structure.xlsx
+++ b/SE2223_60157_60201_60226_60479_60749/Work breakdown structure.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Project name:</t>
   </si>
@@ -25,15 +25,33 @@
     <t>Task</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Phase 1</t>
   </si>
   <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
     <t>Setup the Gantt Project</t>
   </si>
   <si>
+    <t>1.2</t>
+  </si>
+  <si>
     <t>Study and extract exhaustive information from the existing source code</t>
   </si>
   <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>Organize Scrum</t>
+  </si>
+  <si>
     <t>1.2.1</t>
   </si>
   <si>
@@ -50,16 +68,201 @@
   </si>
   <si>
     <t>Review design patterns and code smells</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Create MergeDoc with code smells and design patterns</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Create MergeDoc with all reviews</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>Create Spring backlog</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>Create Burnout Chart</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>Create Scrum Master Log</t>
+  </si>
+  <si>
+    <t>1.3.6</t>
+  </si>
+  <si>
+    <t>Create Work Breakdown Structure</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>Update Scrum_Master_Log</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Update Scrum_board</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Create first Sprint_Backlog</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Distribute use cases of the ganttproject between the members</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>Create report about use case, must have the diagram and all the details
+ about the use case set 1</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>Create report about use case, must have the diagram and all the details
+ about the use case set 2</t>
+  </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>Create report about use case, must have the diagram and all the details
+ about the use case set 3</t>
+  </si>
+  <si>
+    <t>2.4.4</t>
+  </si>
+  <si>
+    <t>Create report about use case, must have the diagram and all the details
+ about the use case set 4</t>
+  </si>
+  <si>
+    <t>2.4.5</t>
+  </si>
+  <si>
+    <t>Create report about use case, must have the diagram and all the details
+ about the use case set 5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Distribute metrics between the members</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>Create Report about metrics set 1</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>Create Report about metrics set 2</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>Create Report about metrics set 3</t>
+  </si>
+  <si>
+    <t>2.5.4</t>
+  </si>
+  <si>
+    <t>Create Report about metrics set 4</t>
+  </si>
+  <si>
+    <t>2.5.5</t>
+  </si>
+  <si>
+    <t>Create Report about metrics set 5</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>Review the use case diagram and its analysis of a member team member 1</t>
+  </si>
+  <si>
+    <t>2.6.2</t>
+  </si>
+  <si>
+    <t>Review the use case diagram and its analysis of a member team member 2</t>
+  </si>
+  <si>
+    <t>2.6.3</t>
+  </si>
+  <si>
+    <t>Review the use case diagram and its analysis of a member team member 3</t>
+  </si>
+  <si>
+    <t>2.6.4</t>
+  </si>
+  <si>
+    <t>Review the use case diagram and its analysis of a member team member 4</t>
+  </si>
+  <si>
+    <t>2.6.5</t>
+  </si>
+  <si>
+    <t>Review the use case diagram and its analysis of a member team member 5</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>Create user Story about feature 1</t>
+  </si>
+  <si>
+    <t>2.7.2</t>
+  </si>
+  <si>
+    <t>Create user Story about feature 2</t>
+  </si>
+  <si>
+    <t>2.8.1</t>
+  </si>
+  <si>
+    <t>Implement Feature 1 (Burndown Chart)</t>
+  </si>
+  <si>
+    <t>2.8.2</t>
+  </si>
+  <si>
+    <t>Implement Feature 2 (Google Calendar Integration)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m.d"/>
-  </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -77,17 +280,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
-      <name val="Helvetica"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="9"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -107,6 +323,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -114,30 +336,52 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -354,7 +598,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="54.63"/>
+    <col customWidth="1" min="2" max="2" width="59.63"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -374,79 +618,855 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="5">
-        <v>44562.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
-        <v>44563.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12">
-      <c r="B12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" hidden="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="16"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="16"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="16"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="16"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="16"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="16"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="16"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="16"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="16"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="16"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="16"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="16"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="16"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="16"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="16"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="16"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="16"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="16"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="16"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="16"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="16"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="16"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="16"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="16"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="16"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="16"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="16"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="16"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="16"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="16"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="16"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="16"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="16"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="16"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="16"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="16"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="16"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="16"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="16"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="16"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="16"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="16"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="16"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="16"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="16"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="16"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="16"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="16"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="16"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="16"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="16"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="16"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="16"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="16"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="16"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="16"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="16"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="16"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="16"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="16"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="16"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="16"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="16"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="16"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="16"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="16"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="16"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="16"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="16"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="16"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="16"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="16"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="16"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="16"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="16"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="16"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="16"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="16"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="16"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="16"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="16"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="16"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="16"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="16"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="16"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="16"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="16"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="16"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="16"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="16"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="16"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="16"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="16"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="16"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="16"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="16"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="16"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="16"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="16"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="16"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="16"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="16"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="16"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="16"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="16"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="16"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="16"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="16"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="16"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="16"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="16"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="16"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="16"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="16"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="16"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="16"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="16"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="16"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="16"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="16"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="16"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="16"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="16"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="16"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="16"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="16"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="16"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="16"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="16"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="16"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="16"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="16"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="16"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="16"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="16"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="16"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="16"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="16"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="16"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="16"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="16"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="16"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="16"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="16"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="16"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="16"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="16"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="16"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="16"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="16"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="16"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="16"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="16"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="16"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="16"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="16"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="16"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="16"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="16"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="16"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="16"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="16"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="16"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="16"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="16"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="16"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="16"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="16"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="16"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
